--- a/allTest_MDPCP.xlsx
+++ b/allTest_MDPCP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="123">
   <si>
     <t>tableName</t>
   </si>
@@ -95,39 +95,42 @@
     <t>PROD_MEDSTAR_MDPCP</t>
   </si>
   <si>
+    <t>m-2021-12</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>PROD_MEDSTAR_MDPCP_FE</t>
+  </si>
+  <si>
     <t>m-2021-11</t>
   </si>
   <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>PROD_MEDSTAR_MDPCP_FE</t>
-  </si>
-  <si>
     <t>rowsEffected</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>2021-03</t>
+  </si>
+  <si>
+    <t>q-2021-4</t>
   </si>
   <si>
     <t>q-2021-3</t>
@@ -776,13 +782,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>20106</v>
+        <v>20920</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -793,13 +799,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>31899</v>
+        <v>33203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -810,13 +816,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>98123</v>
+        <v>102701</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -827,13 +833,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>62170</v>
+        <v>63840</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -844,13 +850,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>21667983</v>
+        <v>23069399</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -861,13 +867,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7">
-        <v>9493744</v>
+        <v>10078677</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -878,13 +884,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>107064</v>
+        <v>114880</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -906,13 +912,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10">
-        <v>7033809</v>
+        <v>6510759</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -923,13 +929,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
-        <v>3255525</v>
+        <v>3411026</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -940,13 +946,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>20271533</v>
+        <v>21069000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -957,13 +963,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3220252</v>
+        <v>2870988</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -974,13 +980,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14">
-        <v>18729338</v>
+        <v>18052535</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -991,13 +997,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>14067618</v>
+        <v>13021518</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1008,13 +1014,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>146382387</v>
+        <v>135994839</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1025,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17">
-        <v>4235567</v>
+        <v>4081813</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1042,13 +1048,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2087633</v>
+        <v>2680642</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1059,13 +1065,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1386676</v>
+        <v>1315373</v>
       </c>
     </row>
   </sheetData>
@@ -1121,13 +1127,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>20106</v>
+        <v>20920</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1136,13 +1142,13 @@
         <v>44518</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>20106</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1153,13 +1159,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>31899</v>
+        <v>33203</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1168,13 +1174,13 @@
         <v>44518</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>31899</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1185,13 +1191,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>98123</v>
+        <v>102701</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1200,13 +1206,13 @@
         <v>44518</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>98123</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1217,13 +1223,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>62170</v>
+        <v>63840</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1232,13 +1238,13 @@
         <v>44518</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>62170</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1249,13 +1255,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>21667983</v>
+        <v>23069399</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -1264,13 +1270,13 @@
         <v>44518</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>21667983</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1401416</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1281,13 +1287,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7">
-        <v>9493744</v>
+        <v>10078677</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -1296,13 +1302,13 @@
         <v>44518</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I7">
         <v>9493744</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>584933</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1313,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>107064</v>
+        <v>114880</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1328,13 +1334,13 @@
         <v>44518</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <v>107064</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1365,13 +1371,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10">
-        <v>7033809</v>
+        <v>6510759</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -1380,13 +1386,13 @@
         <v>44518</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>7033809</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-523050</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1397,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
-        <v>3255525</v>
+        <v>3411026</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1412,13 +1418,13 @@
         <v>44518</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>3255525</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>155501</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1429,13 +1435,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>20271533</v>
+        <v>21069000</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1444,13 +1450,13 @@
         <v>44518</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>20271533</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>797467</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1461,13 +1467,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3220252</v>
+        <v>2870988</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -1476,13 +1482,13 @@
         <v>44518</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I13">
         <v>3220252</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-349264</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1493,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14">
-        <v>18729338</v>
+        <v>18052535</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -1508,13 +1514,13 @@
         <v>44518</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I14">
         <v>18729338</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-676803</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1525,13 +1531,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>14067618</v>
+        <v>13021518</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -1540,13 +1546,13 @@
         <v>44518</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I15">
         <v>14067618</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-1046100</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1557,13 +1563,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>146382387</v>
+        <v>135994839</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -1572,13 +1578,13 @@
         <v>44518</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>146382387</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-10387548</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1589,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17">
-        <v>4235567</v>
+        <v>4081813</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -1604,13 +1610,13 @@
         <v>44518</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I17">
         <v>4235567</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-153754</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1621,13 +1627,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2087633</v>
+        <v>2680642</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1636,13 +1642,13 @@
         <v>44518</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>2087633</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>593009</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1653,13 +1659,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>44518</v>
+        <v>44599</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1386676</v>
+        <v>1315373</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -1668,13 +1674,13 @@
         <v>44518</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I19">
         <v>1386676</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-71303</v>
       </c>
     </row>
   </sheetData>
@@ -1698,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1899,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>1386676</v>
+        <v>1315373</v>
       </c>
       <c r="D19">
         <v>673</v>
@@ -1920,22 +1926,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1981,7 +1987,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1992,7 +1998,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -2003,7 +2009,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -2014,7 +2020,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -2025,7 +2031,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2047,7 +2053,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -2069,7 +2075,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -2080,7 +2086,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -2091,7 +2097,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2102,7 +2108,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -2113,7 +2119,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2135,7 +2141,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2157,7 +2163,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -2190,7 +2196,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2201,7 +2207,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -2223,7 +2229,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -2256,7 +2262,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -2265,7 +2271,7 @@
         <v>44260</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2273,223 +2279,223 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>44461</v>
+        <v>44599</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29">
-        <v>454893</v>
+        <v>490874</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>44461</v>
+        <v>44599</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30">
-        <v>19840</v>
+        <v>23478</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>44461</v>
+        <v>44599</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>346699</v>
+        <v>384728</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2">
-        <v>44461</v>
+        <v>44596</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32">
-        <v>14124240</v>
+        <v>15520788</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>44461</v>
+        <v>44596</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33">
-        <v>1305944</v>
+        <v>1461116</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34">
-        <v>2690350</v>
+        <v>2991609</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35">
-        <v>14957229</v>
+        <v>16700756</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36">
-        <v>307631</v>
+        <v>343597</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37">
-        <v>21033630</v>
+        <v>23390980</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38">
-        <v>2727547</v>
+        <v>3078234</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>44462</v>
+        <v>44599</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39">
-        <v>52755244</v>
+        <v>59080567</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40">
-        <v>18006332</v>
+        <v>20182640</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>44460</v>
+        <v>44596</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41">
-        <v>3260</v>
+        <v>3730</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2545,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -2559,7 +2565,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -2599,7 +2605,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -2619,7 +2625,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -2639,7 +2645,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -2659,7 +2665,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2679,7 +2685,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2699,7 +2705,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -2719,7 +2725,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -2739,7 +2745,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -2759,7 +2765,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -2799,7 +2805,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2819,7 +2825,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2839,7 +2845,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2859,7 +2865,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2879,7 +2885,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -2899,7 +2905,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -2919,7 +2925,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -2939,7 +2945,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2959,7 +2965,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -2999,7 +3005,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -3019,7 +3025,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -3039,7 +3045,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -3059,7 +3065,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -3068,7 +3074,7 @@
         <v>44260</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3080,7 +3086,7 @@
         <v>44260</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2">
-        <v>44461</v>
+        <v>44599</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29">
-        <v>454893</v>
+        <v>490874</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -3112,30 +3118,30 @@
         <v>44461</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I29">
         <v>454893</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>35981</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>44461</v>
+        <v>44599</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30">
-        <v>19840</v>
+        <v>23478</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
@@ -3144,30 +3150,30 @@
         <v>44461</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I30">
         <v>19840</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>44461</v>
+        <v>44599</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>346699</v>
+        <v>384728</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3176,30 +3182,30 @@
         <v>44461</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I31">
         <v>346699</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>38029</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2">
-        <v>44461</v>
+        <v>44596</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32">
-        <v>14124240</v>
+        <v>15520788</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -3208,30 +3214,30 @@
         <v>44461</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I32">
         <v>14124240</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1396548</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>44461</v>
+        <v>44596</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33">
-        <v>1305944</v>
+        <v>1461116</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -3240,30 +3246,30 @@
         <v>44461</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I33">
         <v>1305944</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>155172</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34">
-        <v>2690350</v>
+        <v>2991609</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -3272,30 +3278,30 @@
         <v>44460</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I34">
         <v>2690350</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>301259</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35">
-        <v>14957229</v>
+        <v>16700756</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -3304,30 +3310,30 @@
         <v>44460</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I35">
         <v>14957229</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1743527</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36">
-        <v>307631</v>
+        <v>343597</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -3336,30 +3342,30 @@
         <v>44460</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I36">
         <v>307631</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>35966</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37">
-        <v>21033630</v>
+        <v>23390980</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -3368,30 +3374,30 @@
         <v>44460</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I37">
         <v>21033630</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2357350</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38">
-        <v>2727547</v>
+        <v>3078234</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
@@ -3400,30 +3406,30 @@
         <v>44460</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I38">
         <v>2727547</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>350687</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>44462</v>
+        <v>44599</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39">
-        <v>52755244</v>
+        <v>59080567</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
@@ -3432,30 +3438,30 @@
         <v>44462</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I39">
         <v>52755244</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6325323</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>44460</v>
+        <v>44599</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40">
-        <v>18006332</v>
+        <v>20182640</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
@@ -3464,30 +3470,30 @@
         <v>44460</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I40">
         <v>18006332</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2176308</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>44460</v>
+        <v>44596</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41">
-        <v>3260</v>
+        <v>3730</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
@@ -3496,13 +3502,13 @@
         <v>44460</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I41">
         <v>3260</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -3520,13 +3526,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3534,464 +3540,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2">
-        <v>560772</v>
+        <v>582898</v>
       </c>
       <c r="C2">
         <v>560772</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22126</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3">
-        <v>54242</v>
+        <v>57350</v>
       </c>
       <c r="C3">
         <v>54242</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4">
-        <v>66563</v>
+        <v>69671</v>
       </c>
       <c r="C4">
         <v>66563</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>247419</v>
+        <v>261035</v>
       </c>
       <c r="C5">
         <v>247419</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>13616</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>835053</v>
+        <v>873237</v>
       </c>
       <c r="C6">
         <v>835053</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>38184</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7">
-        <v>609057</v>
+        <v>638213</v>
       </c>
       <c r="C7">
         <v>609057</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>29156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8">
-        <v>296037</v>
+        <v>306730</v>
       </c>
       <c r="C8">
         <v>296037</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10693</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9">
-        <v>346283</v>
+        <v>362452</v>
       </c>
       <c r="C9">
         <v>346283</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>16169</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10">
-        <v>432271</v>
+        <v>447515</v>
       </c>
       <c r="C10">
         <v>432271</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>15244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>101824</v>
+        <v>107189</v>
       </c>
       <c r="C11">
         <v>101824</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>1186849</v>
+        <v>1232729</v>
       </c>
       <c r="C12">
         <v>1186849</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13">
-        <v>856735</v>
+        <v>891700</v>
       </c>
       <c r="C13">
         <v>856735</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>34965</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B14">
-        <v>582306</v>
+        <v>602767</v>
       </c>
       <c r="C14">
         <v>582306</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>20461</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15">
-        <v>54982</v>
+        <v>57535</v>
       </c>
       <c r="C15">
         <v>54982</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16">
-        <v>560069</v>
+        <v>583453</v>
       </c>
       <c r="C16">
         <v>560069</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>23384</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17">
-        <v>907943</v>
+        <v>938505</v>
       </c>
       <c r="C17">
         <v>907943</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>30562</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18">
-        <v>20683</v>
+        <v>21867</v>
       </c>
       <c r="C18">
         <v>20683</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19">
-        <v>144929</v>
+        <v>150553</v>
       </c>
       <c r="C19">
         <v>144929</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20">
-        <v>533651</v>
+        <v>550634</v>
       </c>
       <c r="C20">
         <v>533651</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21">
-        <v>353202</v>
+        <v>370185</v>
       </c>
       <c r="C21">
         <v>353202</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22">
-        <v>33892</v>
+        <v>35372</v>
       </c>
       <c r="C22">
         <v>33892</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B23">
-        <v>1796646</v>
+        <v>1852035</v>
       </c>
       <c r="C23">
         <v>1796646</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>55389</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B24">
-        <v>1867575</v>
+        <v>1920374</v>
       </c>
       <c r="C24">
         <v>1867575</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>52799</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25">
-        <v>706071</v>
+        <v>737558</v>
       </c>
       <c r="C25">
         <v>706071</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26">
-        <v>47582</v>
+        <v>50024</v>
       </c>
       <c r="C26">
         <v>47582</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B27">
-        <v>786028</v>
+        <v>818847</v>
       </c>
       <c r="C27">
         <v>786028</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>32819</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B28">
-        <v>391127</v>
+        <v>407074</v>
       </c>
       <c r="C28">
         <v>391127</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>15947</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29">
-        <v>72409</v>
+        <v>74629</v>
       </c>
       <c r="C29">
         <v>72409</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30">
-        <v>32227</v>
+        <v>34558</v>
       </c>
       <c r="C30">
         <v>32227</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B31">
-        <v>134273</v>
+        <v>138232</v>
       </c>
       <c r="C31">
         <v>134273</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B32">
-        <v>1359824</v>
+        <v>1409996</v>
       </c>
       <c r="C32">
         <v>1359824</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>50172</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B33">
-        <v>65305</v>
+        <v>68709</v>
       </c>
       <c r="C33">
         <v>65305</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B34">
-        <v>369593</v>
+        <v>387760</v>
       </c>
       <c r="C34">
         <v>369593</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>18167</v>
       </c>
     </row>
   </sheetData>
@@ -4015,15 +4021,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -4034,7 +4040,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -4045,7 +4051,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -4056,7 +4062,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -4067,7 +4073,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -4078,7 +4084,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -4089,7 +4095,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -4100,7 +4106,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -4111,7 +4117,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -4122,7 +4128,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -4133,7 +4139,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -4144,7 +4150,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -4155,7 +4161,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -4166,7 +4172,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -4177,7 +4183,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -4188,7 +4194,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -4199,7 +4205,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -4210,7 +4216,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -4221,7 +4227,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -4232,7 +4238,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -4243,7 +4249,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -4254,7 +4260,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -4265,7 +4271,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -4276,7 +4282,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -4287,7 +4293,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -4298,7 +4304,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -4309,7 +4315,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
